--- a/webapi.xlsx
+++ b/webapi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>描述</t>
   </si>
@@ -348,6 +348,26 @@
     <t xml:space="preserve">String：aName
 String:aPwd
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String state:状态i=2[fail]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -734,6 +754,7 @@
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="5" width="35.5546875" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -778,6 +799,9 @@
       <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="137.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -798,6 +822,9 @@
       <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -818,6 +845,9 @@
       <c r="F4" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="158.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -838,6 +868,9 @@
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -852,6 +885,9 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -872,6 +908,9 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -892,6 +931,9 @@
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -906,6 +948,9 @@
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -926,6 +971,9 @@
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -946,6 +994,9 @@
       <c r="F11" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -966,6 +1017,9 @@
       <c r="F12" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -986,6 +1040,9 @@
       <c r="F13" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1006,6 +1063,9 @@
       <c r="F14" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1026,6 +1086,9 @@
       <c r="F15" t="s">
         <v>53</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1046,8 +1109,11 @@
       <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1066,8 +1132,11 @@
       <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1153,10 @@
         <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/webapi.xlsx
+++ b/webapi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>描述</t>
   </si>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注销账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,7 +363,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String：aName
+String:aPwd
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -785,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -794,13 +820,13 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="137.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -817,13 +843,13 @@
         <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -831,22 +857,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="158.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -869,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -926,13 +952,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -949,7 +975,7 @@
         <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -957,206 +983,206 @@
         <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
